--- a/biology/Botanique/Sorbus_aria/Sorbus_aria.xlsx
+++ b/biology/Botanique/Sorbus_aria/Sorbus_aria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alisier blanc
-L'Alisier blanc, Alisier de Bourgogne, Alouchier ou Sorbier des Alpes (Sorbus aria), est une espèce de plantes à fleurs de la famille des Rosacées. C'est un arbre originaire du sud de l'Europe[1].
+L'Alisier blanc, Alisier de Bourgogne, Alouchier ou Sorbier des Alpes (Sorbus aria), est une espèce de plantes à fleurs de la famille des Rosacées. C'est un arbre originaire du sud de l'Europe.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alisier blanc est un arbre hermaphrodite à tronc droit et à houppier ovoïde pouvant mesurer de 3 à 20 m.
 Son écorce est grise, ses feuilles alternes, irrégulièrement dentées, tomenteuses blanches dessous.
@@ -546,7 +560,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alisier blanc apprécie les zones rocheuses au sol superficiel, les bois à tendance sèche (chênaies pubescentes, hêtraies sèches, pinèdes), les fruticées et les lisières forestières acidophiles des étages collinéen et montagnard.
 </t>
@@ -577,7 +593,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fruit n'est pas toxique : il est considéré comme comestible, mais sa chair est farineuse et d'une saveur à la fois acidulée et sucrée. On l'utilise parfois pour préparer des confitures après qu'il a subi les premières gelées.
 </t>
@@ -608,7 +626,9 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sorbus aria (L.) Crantz subsp. aria des bois caducifoliés médioeuropéens, basophiles, oligotrophiles
 Sorbus aria (L.) Crantz subsp. aria var. incisa des bois caducifoliés médioeuropéens, basophiles, montagnards des ravins
@@ -641,7 +661,9 @@
           <t>Hybride</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le croisement de l'alisier blanc avec le poirier commun a donné naissance à un hybride intergénérique nommé ×Sorbopyrus auricularis.
 </t>
